--- a/REGULAR/RE-ENCODE/MARINDUQUE AURORA ARCEREO.xlsx
+++ b/REGULAR/RE-ENCODE/MARINDUQUE AURORA ARCEREO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1573DAAC-C90E-4343-83C6-1CE3CF5884A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -298,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -997,7 +996,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,7 +1039,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1104,7 +1103,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1163,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1229,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,7 +1292,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +1390,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1449,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1514,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1557,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1632,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1818,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1885,7 +1884,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1942,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2008,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2064,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2139,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2182,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2248,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2304,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,25 +2400,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2726,7 +2725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2736,7 +2735,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2744,34 +2743,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A84" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2792,7 +2791,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2812,7 +2811,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2834,7 +2833,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2842,7 +2841,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2855,7 +2854,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2872,7 +2871,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2916,7 +2915,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>134.923</v>
+        <v>136.173</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2926,12 +2925,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>167.29000000000002</v>
+        <v>167.54000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -2953,7 +2952,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>47</v>
@@ -3001,7 +3000,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -3025,7 +3024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -3071,7 +3070,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>43229</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -3119,7 +3118,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43252</v>
       </c>
@@ -3139,7 +3138,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>51</v>
@@ -3187,7 +3186,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -3207,7 +3206,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43344</v>
       </c>
@@ -3227,7 +3226,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43374</v>
       </c>
@@ -3247,7 +3246,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43405</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43435</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>46</v>
@@ -3321,7 +3320,7 @@
         <v>43447</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>54</v>
       </c>
@@ -3339,7 +3338,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43466</v>
       </c>
@@ -3359,7 +3358,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43497</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>56</v>
@@ -3405,7 +3404,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>58</v>
@@ -3427,7 +3426,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43525</v>
       </c>
@@ -3453,7 +3452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43556</v>
       </c>
@@ -3473,7 +3472,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43586</v>
       </c>
@@ -3493,7 +3492,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43617</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>46</v>
@@ -3541,7 +3540,7 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43647</v>
       </c>
@@ -3561,7 +3560,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43678</v>
       </c>
@@ -3581,7 +3580,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43709</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43739</v>
       </c>
@@ -3627,7 +3626,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43770</v>
       </c>
@@ -3647,7 +3646,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43800</v>
       </c>
@@ -3671,7 +3670,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>64</v>
       </c>
@@ -3689,7 +3688,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43831</v>
       </c>
@@ -3709,7 +3708,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43862</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43891</v>
       </c>
@@ -3753,7 +3752,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43922</v>
       </c>
@@ -3773,7 +3772,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43952</v>
       </c>
@@ -3793,7 +3792,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43983</v>
       </c>
@@ -3813,7 +3812,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44013</v>
       </c>
@@ -3837,7 +3836,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44044</v>
       </c>
@@ -3863,7 +3862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44075</v>
       </c>
@@ -3883,7 +3882,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44105</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>46</v>
@@ -3931,7 +3930,7 @@
         <v>44115</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44136</v>
       </c>
@@ -3951,7 +3950,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44166</v>
       </c>
@@ -3977,7 +3976,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>72</v>
       </c>
@@ -3995,7 +3994,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44197</v>
       </c>
@@ -4015,7 +4014,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44228</v>
       </c>
@@ -4035,7 +4034,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44256</v>
       </c>
@@ -4055,7 +4054,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44287</v>
       </c>
@@ -4075,7 +4074,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44317</v>
       </c>
@@ -4095,7 +4094,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44348</v>
       </c>
@@ -4115,7 +4114,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44378</v>
       </c>
@@ -4135,7 +4134,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44409</v>
       </c>
@@ -4155,7 +4154,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44440</v>
       </c>
@@ -4175,7 +4174,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44470</v>
       </c>
@@ -4195,7 +4194,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44501</v>
       </c>
@@ -4215,7 +4214,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44531</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>74</v>
       </c>
@@ -4259,7 +4258,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44562</v>
       </c>
@@ -4279,7 +4278,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44593</v>
       </c>
@@ -4299,7 +4298,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44621</v>
       </c>
@@ -4319,7 +4318,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44652</v>
       </c>
@@ -4339,7 +4338,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44682</v>
       </c>
@@ -4359,7 +4358,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44713</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>56</v>
@@ -4407,7 +4406,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>56</v>
@@ -4429,7 +4428,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44743</v>
       </c>
@@ -4455,7 +4454,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44774</v>
       </c>
@@ -4481,7 +4480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44805</v>
       </c>
@@ -4501,7 +4500,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44835</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44866</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44896</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>46</v>
@@ -4601,7 +4600,7 @@
         <v>44898</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>82</v>
@@ -4623,7 +4622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>81</v>
       </c>
@@ -4641,7 +4640,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44927</v>
       </c>
@@ -4661,7 +4660,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44958</v>
       </c>
@@ -4681,7 +4680,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44986</v>
       </c>
@@ -4707,7 +4706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>55</v>
@@ -4727,7 +4726,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>55</v>
@@ -4747,7 +4746,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>55</v>
@@ -4767,25 +4766,33 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45017</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="B94" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="39"/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H94" s="39">
+        <v>1</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="49"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="49">
+        <v>45035</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45047</v>
       </c>
@@ -4803,7 +4810,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45078</v>
       </c>
@@ -4821,7 +4828,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45108</v>
       </c>
@@ -4839,7 +4846,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45139</v>
       </c>
@@ -4857,7 +4864,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45170</v>
       </c>
@@ -4875,7 +4882,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45200</v>
       </c>
@@ -4893,7 +4900,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45231</v>
       </c>
@@ -4911,7 +4918,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45261</v>
       </c>
@@ -4929,7 +4936,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45292</v>
       </c>
@@ -4947,7 +4954,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45323</v>
       </c>
@@ -4965,7 +4972,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45352</v>
       </c>
@@ -4983,7 +4990,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45383</v>
       </c>
@@ -5001,7 +5008,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45413</v>
       </c>
@@ -5019,7 +5026,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45444</v>
       </c>
@@ -5037,7 +5044,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45474</v>
       </c>
@@ -5055,7 +5062,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45505</v>
       </c>
@@ -5073,7 +5080,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45536</v>
       </c>
@@ -5091,7 +5098,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45566</v>
       </c>
@@ -5109,7 +5116,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45597</v>
       </c>
@@ -5127,7 +5134,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45627</v>
       </c>
@@ -5145,7 +5152,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45658</v>
       </c>
@@ -5163,7 +5170,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45689</v>
       </c>
@@ -5181,7 +5188,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45717</v>
       </c>
@@ -5199,7 +5206,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45748</v>
       </c>
@@ -5217,7 +5224,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45778</v>
       </c>
@@ -5235,7 +5242,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45809</v>
       </c>
@@ -5253,7 +5260,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45839</v>
       </c>
@@ -5271,7 +5278,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45870</v>
       </c>
@@ -5289,7 +5296,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45901</v>
       </c>
@@ -5307,7 +5314,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45931</v>
       </c>
@@ -5325,7 +5332,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>45962</v>
       </c>
@@ -5343,7 +5350,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>45992</v>
       </c>
@@ -5361,7 +5368,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46023</v>
       </c>
@@ -5379,7 +5386,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>46054</v>
       </c>
@@ -5397,7 +5404,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>46082</v>
       </c>
@@ -5415,7 +5422,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>46113</v>
       </c>
@@ -5433,7 +5440,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>46143</v>
       </c>
@@ -5451,7 +5458,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>46174</v>
       </c>
@@ -5469,7 +5476,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>46204</v>
       </c>
@@ -5487,7 +5494,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>46235</v>
       </c>
@@ -5505,7 +5512,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>46266</v>
       </c>
@@ -5523,7 +5530,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>46296</v>
       </c>
@@ -5541,7 +5548,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>46327</v>
       </c>
@@ -5559,7 +5566,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5575,7 +5582,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5591,7 +5598,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5607,7 +5614,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5623,7 +5630,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5639,7 +5646,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="41"/>
       <c r="B143" s="15"/>
       <c r="C143" s="42"/>
@@ -5670,10 +5677,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5696,28 +5703,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -5730,7 +5737,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5759,7 +5766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>84.173000000000002</v>
       </c>
@@ -5783,17 +5790,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5814,7 +5821,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5841,7 +5848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5867,7 +5874,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5893,7 +5900,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5919,7 +5926,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5945,7 +5952,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5971,7 +5978,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5997,7 +6004,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6023,7 +6030,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6043,7 +6050,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6063,7 +6070,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6083,7 +6090,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6104,7 +6111,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6125,7 +6132,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6146,7 +6153,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6167,7 +6174,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6188,7 +6195,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6209,7 +6216,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6230,7 +6237,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6251,7 +6258,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6272,7 +6279,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6293,7 +6300,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6314,7 +6321,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6335,7 +6342,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6356,7 +6363,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6377,7 +6384,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6398,7 +6405,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6419,7 +6426,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6440,7 +6447,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6461,7 +6468,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6482,7 +6489,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6503,7 +6510,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6512,7 +6519,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6521,7 +6528,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6530,7 +6537,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6539,7 +6546,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6548,7 +6555,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6557,7 +6564,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6566,7 +6573,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6575,7 +6582,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6584,7 +6591,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6593,7 +6600,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6602,7 +6609,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6611,7 +6618,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6620,7 +6627,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6629,7 +6636,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6638,7 +6645,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6647,7 +6654,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6656,7 +6663,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6665,7 +6672,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6674,7 +6681,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6683,7 +6690,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6692,7 +6699,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6701,7 +6708,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6710,7 +6717,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6719,7 +6726,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6728,7 +6735,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6737,7 +6744,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6746,7 +6753,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6755,7 +6762,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6764,7 +6771,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
